--- a/data/trans_orig/P57B3_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_R-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>51978</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39898</v>
+        <v>39433</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68136</v>
+        <v>69870</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09459742825386211</v>
+        <v>0.09459742825386212</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07261286619666134</v>
+        <v>0.07176687863791606</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1240041434116689</v>
+        <v>0.1271605218833877</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -762,19 +762,19 @@
         <v>44996</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34956</v>
+        <v>34582</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58632</v>
+        <v>57398</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09212686479632773</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07157129939433754</v>
+        <v>0.07080459107051557</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1200472313497189</v>
+        <v>0.1175201504906809</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>114</v>
@@ -783,19 +783,19 @@
         <v>96974</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79760</v>
+        <v>80060</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>116646</v>
+        <v>119876</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09343481201256694</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07684890994750297</v>
+        <v>0.07713813291887332</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1123891730921936</v>
+        <v>0.1155016229348048</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>497486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>481328</v>
+        <v>479594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>509566</v>
+        <v>510031</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9054025717461378</v>
+        <v>0.905402571746138</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8759958565883307</v>
+        <v>0.8728394781166123</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9273871338033386</v>
+        <v>0.9282331213620839</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>623</v>
@@ -833,19 +833,19 @@
         <v>443415</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>429779</v>
+        <v>431013</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>453455</v>
+        <v>453829</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9078731352036723</v>
+        <v>0.9078731352036722</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8799527686502812</v>
+        <v>0.8824798495093191</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9284287006056625</v>
+        <v>0.9291954089294845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1125</v>
@@ -854,19 +854,19 @@
         <v>940901</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>921229</v>
+        <v>917999</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>958115</v>
+        <v>957815</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9065651879874331</v>
+        <v>0.906565187987433</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8876108269078063</v>
+        <v>0.8844983770651943</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9231510900524971</v>
+        <v>0.9228618670811265</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>42860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32450</v>
+        <v>31716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56103</v>
+        <v>56973</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08869784029918082</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06715433152181172</v>
+        <v>0.06563666968010073</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1161052609725901</v>
+        <v>0.1179050903206369</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -979,19 +979,19 @@
         <v>42414</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31995</v>
+        <v>33521</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53639</v>
+        <v>53283</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1006552153223122</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07593005736971419</v>
+        <v>0.07955003185535431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.12729384261939</v>
+        <v>0.1264487689386813</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -1000,19 +1000,19 @@
         <v>85274</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70697</v>
+        <v>69935</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101813</v>
+        <v>101631</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09426784376313986</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07815354756615378</v>
+        <v>0.0773115456434111</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1125521479378711</v>
+        <v>0.1123499733952122</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>440352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>427109</v>
+        <v>426239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>450762</v>
+        <v>451496</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9113021597008192</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8838947390274101</v>
+        <v>0.882094909679363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9328456684781882</v>
+        <v>0.934363330319899</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>523</v>
@@ -1050,19 +1050,19 @@
         <v>378963</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>367738</v>
+        <v>368094</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>389382</v>
+        <v>387856</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8993447846776877</v>
+        <v>0.8993447846776876</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.87270615738061</v>
+        <v>0.8735512310613188</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9240699426302859</v>
+        <v>0.9204499681446466</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>955</v>
@@ -1071,19 +1071,19 @@
         <v>819315</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>802776</v>
+        <v>802958</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>833892</v>
+        <v>834654</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9057321562368602</v>
+        <v>0.90573215623686</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8874478520621288</v>
+        <v>0.8876500266047879</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9218464524338463</v>
+        <v>0.9226884543565887</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>55241</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43217</v>
+        <v>43058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71320</v>
+        <v>67810</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1171322087087281</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09163631366535573</v>
+        <v>0.09129961308265705</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1512252639491991</v>
+        <v>0.1437836397755144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -1196,19 +1196,19 @@
         <v>28420</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21470</v>
+        <v>21671</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36344</v>
+        <v>37461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1515743049166171</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1145106537809549</v>
+        <v>0.1155816314966969</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1938366050486028</v>
+        <v>0.1997942332924497</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -1217,19 +1217,19 @@
         <v>83661</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68980</v>
+        <v>69479</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99459</v>
+        <v>99966</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1269299804385853</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1046561448213887</v>
+        <v>0.1054127905545699</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1508989209446149</v>
+        <v>0.1516680714508206</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>416371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>400292</v>
+        <v>403802</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>428395</v>
+        <v>428554</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.882867791291272</v>
+        <v>0.8828677912912718</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8487747360508009</v>
+        <v>0.8562163602244854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9083636863346436</v>
+        <v>0.9087003869173429</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -1267,19 +1267,19 @@
         <v>159077</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151153</v>
+        <v>150036</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166027</v>
+        <v>165826</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8484256950833829</v>
+        <v>0.8484256950833828</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.806163394951397</v>
+        <v>0.8002057667075505</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8854893462190452</v>
+        <v>0.8844183685033031</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>666</v>
@@ -1288,19 +1288,19 @@
         <v>575448</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>559650</v>
+        <v>559143</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>590129</v>
+        <v>589630</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8730700195614148</v>
+        <v>0.8730700195614146</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8491010790553851</v>
+        <v>0.8483319285491796</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8953438551786113</v>
+        <v>0.8945872094454299</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>147648</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127029</v>
+        <v>127655</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>170255</v>
+        <v>171495</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1305564744472701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1123237055800914</v>
+        <v>0.1128778310057735</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.150545913812053</v>
+        <v>0.1516427893502755</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -1413,19 +1413,19 @@
         <v>83711</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69904</v>
+        <v>70177</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98756</v>
+        <v>100000</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09720186593852033</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08116972071632668</v>
+        <v>0.08148633366310688</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1146712583323267</v>
+        <v>0.1161150385747878</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>287</v>
@@ -1434,19 +1434,19 @@
         <v>231360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>206455</v>
+        <v>202523</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>259383</v>
+        <v>257321</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1161370251269201</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1036354177796589</v>
+        <v>0.1016616598603802</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1302040390064855</v>
+        <v>0.1291690424578907</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>983267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>960660</v>
+        <v>959420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1003886</v>
+        <v>1003260</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8694435255527301</v>
+        <v>0.8694435255527296</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8494540861879472</v>
+        <v>0.8483572106497246</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8876762944199087</v>
+        <v>0.8871221689942266</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1111</v>
@@ -1484,19 +1484,19 @@
         <v>777500</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>762455</v>
+        <v>761211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>791307</v>
+        <v>791034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9027981340614797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8853287416676733</v>
+        <v>0.8838849614252121</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9188302792836732</v>
+        <v>0.918513666336893</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2060</v>
@@ -1505,19 +1505,19 @@
         <v>1760767</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1732744</v>
+        <v>1734806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1785672</v>
+        <v>1789604</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8838629748730799</v>
+        <v>0.88386297487308</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8697959609935134</v>
+        <v>0.8708309575421095</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8963645822203409</v>
+        <v>0.8983383401396199</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>103116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86382</v>
+        <v>85066</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121263</v>
+        <v>124212</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1815545779328954</v>
+        <v>0.1815545779328953</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1520905952950395</v>
+        <v>0.1497736768790582</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2135040711369493</v>
+        <v>0.2186968942254489</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>272</v>
@@ -1630,19 +1630,19 @@
         <v>163344</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>145162</v>
+        <v>146106</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>183451</v>
+        <v>182583</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.196993697463003</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1750652934116067</v>
+        <v>0.1762048643344339</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2212422406181633</v>
+        <v>0.2201957681575505</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>385</v>
@@ -1651,19 +1651,19 @@
         <v>266461</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>240003</v>
+        <v>240084</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>294617</v>
+        <v>293882</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1907174447782957</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1717805819028073</v>
+        <v>0.1718386582092299</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2108700215962174</v>
+        <v>0.2103438140747182</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>464848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>446701</v>
+        <v>443752</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>481582</v>
+        <v>482898</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8184454220671047</v>
+        <v>0.8184454220671046</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.786495928863051</v>
+        <v>0.7813031057745511</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8479094047049603</v>
+        <v>0.8502263231209418</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1015</v>
@@ -1701,19 +1701,19 @@
         <v>665841</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>645734</v>
+        <v>646602</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>684023</v>
+        <v>683079</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8030063025369969</v>
+        <v>0.803006302536997</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7787577593818367</v>
+        <v>0.7798042318424495</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8249347065883932</v>
+        <v>0.8237951356655663</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1449</v>
@@ -1722,19 +1722,19 @@
         <v>1130688</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1102532</v>
+        <v>1103267</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1157146</v>
+        <v>1157065</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8092825552217041</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7891299784037826</v>
+        <v>0.7896561859252816</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8282194180971928</v>
+        <v>0.8281613417907702</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>10216</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4782</v>
+        <v>4485</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22186</v>
+        <v>21621</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04306291397740059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02015678656207889</v>
+        <v>0.01890541560680485</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09352378635217576</v>
+        <v>0.09114113867308581</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>204</v>
@@ -1847,19 +1847,19 @@
         <v>130865</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>112618</v>
+        <v>113962</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>150515</v>
+        <v>149818</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1554377737885955</v>
+        <v>0.1554377737885956</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1337642286060802</v>
+        <v>0.1353606262805654</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1787774078033642</v>
+        <v>0.1779498495630094</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>214</v>
@@ -1868,19 +1868,19 @@
         <v>141081</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>122641</v>
+        <v>120845</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>161705</v>
+        <v>162059</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1307343552167388</v>
+        <v>0.1307343552167387</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1136473021997811</v>
+        <v>0.1119829629370801</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1498467200873764</v>
+        <v>0.1501744735136887</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>227012</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215042</v>
+        <v>215607</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232446</v>
+        <v>232743</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9569370860225995</v>
+        <v>0.9569370860225994</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9064762136478243</v>
+        <v>0.9088588613269136</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9798432134379211</v>
+        <v>0.981094584393195</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>952</v>
@@ -1918,19 +1918,19 @@
         <v>711047</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>691397</v>
+        <v>692094</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>729294</v>
+        <v>727950</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8445622262114043</v>
+        <v>0.8445622262114044</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8212225921966357</v>
+        <v>0.8220501504369906</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8662357713939198</v>
+        <v>0.8646393737194346</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1054</v>
@@ -1939,19 +1939,19 @@
         <v>938058</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>917434</v>
+        <v>917080</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>956498</v>
+        <v>958294</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8692656447832613</v>
+        <v>0.8692656447832612</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8501532799126246</v>
+        <v>0.8498255264863113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8863526978002209</v>
+        <v>0.88801703706292</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>411059</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>378677</v>
+        <v>375833</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>452091</v>
+        <v>447936</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1194802268020481</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1100678867452699</v>
+        <v>0.1092411789759621</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1314066671436957</v>
+        <v>0.1301989098269085</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>771</v>
@@ -2064,19 +2064,19 @@
         <v>493750</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>458847</v>
+        <v>459204</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>529168</v>
+        <v>531817</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1360344646005613</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1264181891385597</v>
+        <v>0.1265167773682881</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1457927186625174</v>
+        <v>0.1465225288075535</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1225</v>
@@ -2085,19 +2085,19 @@
         <v>904809</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>853117</v>
+        <v>853405</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>957519</v>
+        <v>962226</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1279788489221866</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1206674362750165</v>
+        <v>0.1207080999418658</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.135434385743253</v>
+        <v>0.1361000837892199</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3029335</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2988303</v>
+        <v>2992458</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3061717</v>
+        <v>3064561</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8805197731979519</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8685933328563044</v>
+        <v>0.8698010901730914</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.88993211325473</v>
+        <v>0.8907588210240379</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4465</v>
@@ -2135,19 +2135,19 @@
         <v>3135843</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3100425</v>
+        <v>3097776</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3170746</v>
+        <v>3170389</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8639655353994387</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8542072813374826</v>
+        <v>0.853477471192447</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8735818108614403</v>
+        <v>0.8734832226317126</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7309</v>
@@ -2156,19 +2156,19 @@
         <v>6165178</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6112468</v>
+        <v>6107761</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6216870</v>
+        <v>6216582</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8720211510778133</v>
+        <v>0.8720211510778134</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8645656142567472</v>
+        <v>0.8638999162107794</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8793325637249836</v>
+        <v>0.8792919000581341</v>
       </c>
     </row>
     <row r="24">
